--- a/.armedangels/armedangels_men_products.xlsx
+++ b/.armedangels/armedangels_men_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,6 +693,9717 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AADRU LS RUGBY FLEECESweatshirts made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AADRU LS RUGBY FLEECE, made from brushed sweat fabric, features a color-block design with a button placket and embroidered logo. Crafted from organic cotton, it offers a relaxed fit. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Brushed Optics: Colourblock Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Details: Logo embroidery Fit Cut: Oversized Fit Dimensions: vorne: 75.0cm, hinten: 78.0cm Help for size choosing Model size Unser Model Duncan ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton, Collar: 100% cotton (bio) Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aadru-ls-rugby-fleece-mystic-swamp-steel-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AADRU OUTSIDET-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>44,90 €</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Oversized Fit Dimensions: 76.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aadru-outside-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AADRU RETROMidweight Polo T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Collar: polo collar Details: Embroidery Fit Cut: Oversized Fit Length: Regular Dimensions: 76.5cm Size recommendation: We recommend sizing up. Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aadru-retro-light-oatmilk-pigment-blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AADRU SWEAT GMT DYESweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Garment Dyed Fit Cut: Oversized Fit Length: Regular Dimensions: 76.5cm Help for size choosing Model size Our model Halid Nuhu is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aadru-sweat-gmt-dye-sand-stone-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AAGAPIOWoven Pants made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+These AAGAPIO fabric trousers offer a comfortable, loose fit with a mid-rise waist and straight cut. Special pocket details and the blend of organic cotton and elastane ensure comfort and versatile styling options. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: zipper Fit Cut: Relaxed Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Help for size choosing Model size Our model Dor is 184 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 97% cotton (bio), 3% elasthane Trimming: metal buttons Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: SANTUK TEKSTIL SAN. VE TIC. A.S.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aagapio-sand-stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AALBERTWoven trousers made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>109,90 €</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The AALBERT pants are made from pure organic cotton. The mid-rise waist and straight leg emphasize the relaxed fit, ensuring everyday comfort. A zip fastening completes the clean design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: zipper Fit Cut: Relaxed Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Unser Model Duncan ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal buttons Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aalbert-dark-steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AALOX DEGRADÉT-Shirt Oversized Fit made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Oversized Fit Dimensions: 73.5cm Help for size choosing Model size Our model Tom is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aalox-degrade-spruce-petrol</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AAMBROSIOKnit Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Mouliné Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 69.0cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aambrosio-night-sky-lapis-blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AANATOLCardigan made of Organic Wool Mix</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AANATOL knit cardigan in fine knit features a deep V-neck and a button placket. Made from a blend of organic cotton and wool, it offers a soft feel and a laid-back fit. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Deep V-neck Optics: Plain Sleeves: long sleeved Closure type: Button placket Fit Cut: Relaxed Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 85% cotton (bio), 15% wool (bio) Material Info: Fine knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aanatol-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AANTONCardigan made from an organic wool blend</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>199,90 €</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AANTON cardigan features a chunky cable knit pattern with patch pockets, a zipper closure, and a stand-up collar. Made from organic wool, it provides a comfortable feel. The classic crew neckline completes the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Cable pattern Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: zipper Collar: stand-up collar Fit Cut: Regular Fit Length: Regular Dimensions: 69.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% wool (bio) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aanton-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AARJO TARPATapered Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARJO TARPA jeans are designed with a  tapered leg and crafted from a fabric that offers just the right amount of stretch for all-day comfort and unrestricted movement. The blend of recycled cotton and TENCEL™ x REFIBRA™ Lyocell gives these jeans a relaxed and effortlessly casual look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Ray is 186 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% RCS certified recycled cotton and 1% RCS certified recycled Elastane RCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-black-washed-authentic</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AARJO TARPA TAPERED JEANTapered Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 82% Baumwolle (recycelt), 14% Lyocell (TENCEL™), 3% Elastomultiester (EME), 1% Elasthan (recycelt) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 82% RCS certified recycled cotton RCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-black-washed-authentic-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AARJO TARPATapered Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARJO TARPA jeans are designed with a  tapered leg and crafted from a fabric that offers just the right amount of stretch for all-day comfort and unrestricted movement. The blend of recycled cotton and TENCEL™ x REFIBRA™ Lyocell gives these jeans a relaxed and effortlessly casual look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Duncan is 188 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AARJO TARPA TAPERED JEANTapered Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 82% Baumwolle (recycelt), 14% Lyocell (TENCEL™), 3% Elastomultiester (EME), 1% Elasthan (recycelt) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-cloud-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AARJO TARPATapered Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARJO TARPA jeans feature a tapered leg and a fabric blend with a slight amount of stretch for freedom of movement. The material combines recycled cotton with TENCEL™ x REFIBRA™ Lyocell, giving the jeans a laid-back look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Pockets: 5-Pocket Closure type: Button &amp; zipper Details: Garment Dyed Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-forest-pine</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AARJO TARPATapered Jeans recycled cotton mix Comfort-Stretch</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARJO TARPA jeans are designed with a  tapered leg and crafted from a fabric that offers just the right amount of stretch for all-day comfort and unrestricted movement. The blend of recycled cotton and TENCEL™ x REFIBRA™ Lyocell gives these jeans a relaxed and effortlessly casual look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Claas is 186 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: SANTUK TEKSTIL SAN. VE TIC. A.S.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AARJO TARPATapered leg mid waist made from a recycled cotton blend</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARJO TARPA jeans feature a tapered leg and a fabric with a touch of stretch for comfortable freedom of movement. The material combines recycled cotton with TENCEL™ x REFIBRA™ Lyocell, giving the jeans a relaxed, effortless look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-morina</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AARJO TARPATapered Jeans organic cotton hemp mix Comfort-Stretch</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARJO TARPA jeans stand out with a tapered leg and a fabric blend that includes a slight stretch for comfortable freedom of movement. Made from organic cotton and hemp fiber, they offer a natural, high-quality, and effortlessly casual look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 84% cotton (bio), 14% hemp fibre, 2% elasthane Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-tethys</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AARJO TARPA TAPERED JEANTapered Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARJO TARPA jeans are designed with a  tapered leg and crafted from a fabric that offers just the right amount of stretch for all-day comfort and unrestricted movement. The blend of recycled cotton and TENCEL™ x REFIBRA™ Lyocell gives these jeans a relaxed and effortlessly casual look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% RCS certified recycled cotton RCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarjo-tarpa-thone</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AARNAULTShirt Relaxed Fit made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The AARNAULT shirt made from 100% organic cotton offers an exceptionally soft texture with its brushed surface. The checked design and loose fit ensure casual style and comfort. A subtle logo embroidery under the breast pocket and a sophisticated label along the button placket give the shirt a classic touch. This shirt is perfect for relaxed days and cool evenings. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Checked Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 77.5cm, 74.0cm Help for size choosing Model size Our model Noah is 190 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarnault-night-sky-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AARTYOM GMT DYEPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The AARTYOM GYMR DYE knitted jacket, made from 100% organic cotton, features a comfortable fit and a practical zipper. The fabric offers a soft feel and versatile comfort for everyday wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Optics: Plain Sleeves: long sleeved Closure type: zipper Collar: Troyer with zipper Fit Cut: Regular Fit Length: Regular Dimensions: 69.0cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal zipper Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aartyom-gmt-dye-forest-pine</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AARVENKnit Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AARVEN knit shirt, made from pure organic cotton, features a fine vertical ribbed fabric. The polo collar and relaxed fit ensure a comfortable feel, making it a versatile essential for everyday wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Collar: polo collar Fit Cut: Regular Fit Length: Regular Dimensions: 67.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarven-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AARVODenim Shorts made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+We were eco before it was cool. AARVO is both of it. Our regular fit comes with the benefits of organic cotton and can't wait to become your accomplice on summer days. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: no closure Details: no details Fit Cut: Regular Fit Dimensions: inseam length: 22.5cm Help for size choosing Model size Our model Jelle is 184 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 99% cotton (bio), 1% elasthane Trimming: metal zipper nickelfree Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarvo-ocean</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AARVO DENIM SHORTDenim Shorts made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button Details: Undyed Fit Cut: Regular Fit Waistband height: Mid waist Length: Short Dimensions: inseam length: 22.5cm Help for size choosing Model size Our model Holger is 179 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 80% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aarvo-sand-stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AARYStraight Jeans recycled Cotton Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new AARY jeans are straight-leg denim with a straight cut and button placket. Made from 100% organic cotton, the fabric gives the jeans a firm, non-stretch quality and an authentic denim look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Pockets: 5-Pocket Closure type: Button placket Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 74.0cm, 32: 79.0cm, 34: 84.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 100% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aary-ashen</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AARYStraight Jeans Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new AARY jeans are relaxed straight-leg denim with a straight cut and button placket. The blend of organic cotton, recycled cotton, and TENCEL™ Lyocell gives the jeans a firm, non-stretch quality and an authentic denim look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button placket Fit Cut: Straight Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 74.0cm, 32: 79.0cm, 34: 84.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 43% lyocell (TENCEL™), 40% recycled cotton, 17% cotton (bio) Trimming: metal buttons Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 17% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aary-bendoc</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AARYstraight Jeans recycled cotton</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new undyed AARY jeans are a relaxed straight-leg denim with a clean-cut silhouette and an authentic button placket. Made from 100% recycled cotton, they offer a sturdy, non-stretch quality that enhances their genuine denim look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Pockets: 5-Pocket Closure type: Button placket Details: Undyed Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 74.0cm, 32: 79.0cm, 34: 84.0cm Help for size choosing Model size Our model Holger is 179 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 87% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aary-undyed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AARYStraight Jeans Organic Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new AARY selvedge jeans are straight-leg denim with a straight cut and button placket. The blend of organic and recycled cotton gives the jeans a firm, non-stretch quality and an authentic denim look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Pockets: 5-Pocket Closure type: Button placket Details: Selvedge Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 74.0cm, 32: 79.0cm, 34: 84.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 80% cotton (bio), 20% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 80% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aary-yowri</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AASHTON DENIM JACKETDenim Jacket made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AASHTON denim jacket features a laid-back fit, color-contrasting shirt collar, and classic button placket. Patched pockets add bold accents, while the fabric made from recycled cotton has a pleasantly firm feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Dimensions: 69.0cm Help for size choosing Model size Our model Duncan  is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 89% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aashton-denim-jacket-vorma</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AASKER BOXER SHORTSBoxer made of TENCEL™ Modal Mix</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Happiness is comfortable boxer shorts - AASKER, our American boxer shorts from TENCEL™ Modal, is equipped with a stitched elastic waistband and a hidden button panel at the front. Breathable and in a soft and supple quality. Attention: AASKER is also available in a value pack! Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: elastic waistband Fit Cut: Relaxed Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 95% modal (TENCEL™), 5% elasthane Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Buca/Izmir, Turkey Producer: NARKONTEKS DIS TICARET A.S.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aasker-teal-stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AASTER CHINO PANTChino Pants made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The AASTER chinos are made from heavy organic cotton with a small amount of stretch. The clean, timeless design is complemented by side pockets. The structured quality provides comfort and natural freedom of movement. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Button &amp; zipper Details: Garment Dyed Fit Cut: Regular Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 74.0cm, 32: 79.0cm, 34: 84.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 97% cotton (bio), 3% elasthane Trimming: hemp buttons Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aaster-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AAUGUSTShorts made of TENCEL™ Lyocell</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The loosely cut AAUGUST shorts are made from a blend of TENCEL™ Lyocell and organic cotton. Pleats, side slit pockets, and belt loops complete the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Twill structure Optics: Plain Pockets: Side pocket Closure type: Button &amp; zipper Details: pleat-front Fit Cut: Relaxed Fit Leg shape: Straight leg Waistband height: Mid waist Length: Ending above knee Dimensions: inseam length: 19.0cm Help for size choosing Model size Our model Holger is 179 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 54% lyocell (TENCEL™), 46% cotton (bio) Material Info: Mid weight woven Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aaugust-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AAUSTINRelaxed Tapered Jeans organic cotton mix Comfort-Stretch</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AAUSTIN jeans stand out with their loose cut, tapered leg, and stylish ankle-length. The soft blend of organic cotton and recycled cotton, enhanced with slight stretch, ensures effortless comfort, freedom of movement, and a laid-back casual style. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Details: no details Fit Cut: Relaxed Fit Leg shape: Tapered leg Waistband height: Mid waist Length: ankle-length Dimensions: inseam length: 30: 62.0cm, 32: 67.0cm, 34: 72.0cm Help for size choosing Model size Our model Anas is 188 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aaustin-saphir-blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AAUSTINRelaxed Tapered Jeans organic cotton mix Comfort-Stretch</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AAUSTIN jeans stand out with their loose cut, tapered leg, and stylish ankle-length. The soft blend of organic cotton and recycled cotton, enhanced with slight stretch, ensures effortless comfort, freedom of movement, and a laid-back casual style. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Details: no details Fit Cut: Relaxed Fit Leg shape: Tapered leg Waistband height: Mid waist Length: ankle-length Dimensions: inseam length: 30: 62.0cm, 32: 67.0cm, 34: 72.0cm Help for size choosing Model size Our model Noah is 190 cm tall and is wearing size 32/34
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/aaustin-washed-iron</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HEAVY WEIGHT TANK TOPHeavyweight Tanktop made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>34,90 €</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.5cm Help for size choosing Model size Our model Holger is 179 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/adriaan-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AGAAMON KNIT JACKETCardigan from organic cotton</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AGAAMON knit cardigan, made from pure organic cotton, features a loose fit, a classic blouson collar, and a practical zipper. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: zipper Collar: Bomberjacket Collar Fit Cut: Regular Fit Length: Regular Dimensions: 70.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal zipper Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/agaamon-knit-cardigan-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ALVAARIOPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Mouliné Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Regular Fit Length: Regular Dimensions: 69.5cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/alvaario-steel-melange-dark-morning-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ANAAR PREMIUMChino Pants made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ANAAR PREMIUM chinos made from heavyweight woven fabric made from 100% organic cotton offer you a slim, comfortable fit with a mid-rise waistband, slightly tapered leg and side pockets. Finely embroidered, they will complement any urban outfit. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: zipper Details: Embroidery Fit Cut: tapered Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 68.5cm, 32: 73.5cm, 34: 78.5cm Help for size choosing Model size Our model Claas is 186 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Metal hook Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/anaar-premium-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ARAAMO FLANNEL SHIRTOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our ARAAMO shirt, made from 100% organic cotton, is crafted from a lightweight woven fabric and offers a comfortable, loose fit. A patched chest pocket, classic collar, and subtle embroidered logo complete the laid-back look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button Collar: button-down collar Fit Cut: Relaxed Fit Dimensions: 77.5cm Shoulder: Regular shoulder Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Material characteristic: Comfort-Stretch Washing &amp; care instructions Normal wash at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/araamo-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ARAANIOWoven Pants made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>149,90 €</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ARAANIO trousers, made from robust corduroy, combine a mid waist and straight legs with precisely placed pleats. Side pockets and a hidden zipper complete the minimalist design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: zipper Details: pleat-front Fit Cut: Straight Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 72.0cm Help for size choosing Model size Our model Duncan  is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Metal hook Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Tumble dry at low temperature Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/araanio-dark-steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AVAANCorduroy overshirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our AVAAN Corduroy overshirt, made from heavy woven fabric, features a straight, comfortable fit. Crafted from organic and recycled cotton, it stands out with a distinctive corduroy finish. A shirt collar, button placket, and three patched pockets emphasize the laid-back look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Regular Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Tumble dry at low temperature Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/avaan-light-oak</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BAARO CHANGEMAKERSSweatshirts made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Brushed Optics: Placement Print Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Unser Model Duncan  ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baaro-changemakers-dark-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BAARO CHANGESSweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The BAARO CHANGES sweatshirt is made from organic cotton. It features a classic crew neck, a printed logo on the chest, and a large graphic artwork on the back. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baaro-changes-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BAARO COMFORTSweatshirt made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>54,90 €</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The BAARO COMFORT sweatshirt impresses with a relaxed, comfortable cut and subtle logo embroidery. The blend of organic cotton and recycled cotton feels soft and is perfect for everyday wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Dor Abu is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baaro-comfort-space-steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BAARO FLEECE SWEATSHIRTSweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The BAARO FLEECE sweatshirt is made from durable organic cotton with a soft surface and warming fleece lining. It features a classic crew neck and subtle logo embroidery. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Duncan is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baaro-fleece-space-steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BAARO LOOP SWEATSHIRTSweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The BAARO LOOP sweatshirt is made from durable organic cotton with a soft surface and looped interior. The characteristic terry texture on the inside makes the fabric lighter and more breathable. It features a classic crew neck and subtle logo embroidery – perfect for milder days. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Duncan  is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baaro-loop-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BAARO SUNSweatshirt from organic cotton mix</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>54,90 €</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baaro-sun-misty-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BAASTI FLEECE SWEATPANTSweatpants from organic cotton</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The BAASTI FLEECE sweatpants are made from 100% organic cotton and lined with soft fleece on the inside. Thanks to the loose cut and elastic waistband, they offer maximum comfort. Side pockets complete the relaxed look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Drawstring Details: elastic waistband Fit Cut: Relaxed Fit Leg shape: Tapered leg Dimensions: inseam length: 73.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baasti-fleece-forest-pine</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BAASTI LOOP SWEATPANTSweat Pants made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Details: Logo embroidery Fit Cut: Relaxed Fit Dimensions: Innenseitenlänge: 71.5cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/baasti-loop-sweatpant-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BEAATRICEBeanie made from a mohair-wool blend</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Breite: 28.0cm, 21.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 50% mohair, 50% wool (bio) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% RWS certified responsible wool RWS, CU-1085700 50% RMS certified responsible mohair RMS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/beaatrice-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BENJAARO CORDUROYSweatshirt Regular Fit made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The BENJAARO sweatshirt in a corduroy look boasts a comfortable, classic cut and a natural feel thanks to 100% organic cotton. Although the fabric is not corduroy, the corduroy look gives the sweatshirt a stylish, textured look. It is pleasantly breathable and feels soft to wear. Whether on cool or warm days, this sweatshirt will keep you nice and warm and dry. A versatile garment that is suitable for many occasions and impresses with its durability - perfect for a relaxed and comfortable look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Claas is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/benjaaro-corduroy-iron-cast</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BLAAKE DEMOCRACYT-Shirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ‘Don't Ghost the Vote’ collection stands for democracy. The unisex styles made from organic and recycled cotton were developed with artist Eike König. All profits support organisations that promote democracy and human rights and combat hate and right-wing agitation. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model ISA  is 177 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/blaake-democracy-undyed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BOWLAASDenim Shirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+BOWLAAS is a short-sleeved denim shirt made from lightweight denim with organic cotton and TENCEL™ Lyocell. Featuring a shirt collar, patched chest pocket, and snap button placket. The lightweight fabric makes it ideal for warm days. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Sleeves: short sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Fit Cut: Oversized Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 62% cotton (bio), 38% lyocell (TENCEL™) Material Info: Light weight denim Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/bowlaas-powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BRYANAASchal aus Mohair Woll Mix</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Länge: 142.0cm, Breite: 80.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 50% mohair, 50% wool (bio) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% RWS certified responsible wool RWS, CU-1085700 50% RMS responsible mohair RMS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/bryanaa-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BRYANAA TRIANGLE SCARFScarf made from a wool blend</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: Logo flag label Fit Cut: Regular Fit Dimensions: Länge: 180.0cm, Breite: 70.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 50% wool (bio), 50% wool (recycled) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified recycled wool GRS, CU-1085700 50% RWS certified responsible wool RWS, CU-1085700 Production Production site: Wernberg-Köblitz, Germany Producer: WALTER STÖHR GmbH</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/bryanaa-triangle-scarf-tinted-navy</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CAARLO STRIPES SOCKSSocks made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>19,90 €</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 78% Baumwolle (bio), 20% Polyamid (recycelt), 2% Elasthan Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/caarlo-stripes-socks-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CAATEO DEMOCRACYSweathoodie from organic cotton</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ‘Don't Ghost the Vote’ collection stands for democracy. The unisex styles made from organic and recycled cotton were developed with artist Eike König. All profits support organisations that promote democracy and human rights and combat hate and right-wing agitation. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Pockets: Kangaroo pocket Closure type: no closure Collar: Hood Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model ISA  is 177 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/caateo-democracy-undyed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CHECK LONGSLEEVE SHIRTShirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 77.5cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/check-longsleeve-shirt-tinted-navy</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CLAASASScarf made of Merino Wool</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Ribbed fabric Optics: Plain Fit Cut: Regular Fit Dimensions: Width: 24.0cm, Length: 180.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% wool (bio) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Wernberg-Köblitz, Germany Producer: WALTER STÖHR GmbH</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/claasas-light-grey-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CONSTAAOvershirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The CONSTAA overshirt combines a loose, comfortable fit with a classic shirt collar and patch pockets. The blend of organic cotton and elastane ensures a high level of comfort and makes the overshirt a versatile companion. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: zipper Collar: shirt collar Details: Adjustable straps Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Our model Dor Abu is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 97% cotton (bio), 3% elasthane Trimming: metal buttons Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: SANTUK TEKSTIL SAN. VE TIC. A.S.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/constaa-sand-stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>COTTON LINEN JACKETCOTTON LINEN JACKET | sandstone</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159,90 €</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Sleeves: long sleeved Pockets: Patched pocket Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Unser Model Aziz  ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 92% Baumwolle (bio), 8% Leinen Trimming: metal buttons Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/cotton-linen-jacket-sandstone</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>COTTON LINEN PANTCOTTON LINEN PANT | sandstone</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Twill structure Optics: Plain Pockets: Patched pocket Closure type: Drawstring Details: elastic waistband Fit Cut: Relaxed Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 92% Baumwolle (bio), 8% Leinen Material Info: Mid weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/cotton-linen-pant-sandstone</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CROSSBODY TOTE BAGCROSSBODY TOTE BAG | black</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: Logo print Fit Cut: Regular Fit
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight woven Washing &amp; care instructions Normal wash at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/crossbody-tote-bag-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>DAAKOJumper made from an organic cotton blend</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DAAKO mid-weight knit sweater with a classic cable pattern is made from a blend of organic cotton and wool. The straight fit and round neckline complete the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Cable pattern Fit Cut: Regular Fit Dimensions: 68.0cm Help for size choosing Model size Our model Olli is 188 cm tall and wears size M
+[MATERIAL]
+Material &amp; Care Material Main material: 65% cotton (bio), 23% wool (recycled), 12% wool (bio) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 65% OCS certified organic cotton and 12% OCS certified organic wool OCS Blended, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/daako-night-sky-tweed-frozen-lavender</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DAALOSShorts from organic cotton mix</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Twill structure Optics: Plain Pockets: Side pocket Closure type: Button &amp; zipper Details: Embroidery Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Ending above knee Dimensions: inseam length: 22.0cm Help for size choosing Model size Our model Do is 186 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 98% cotton (bio), 2% elasthane Trimming: hemp buttons Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/daalos-sand-stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>DEAATABeanie made from a wool blend</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Höhe: 40.0cm, Breite: 29.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 50% wool (bio), 50% wool (recycled) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified recycled wool GRS, CU-1085700 50% RWS certified responsible wool RWS, CU-1085700 Production Production site: Wernberg-Köblitz, Germany Producer: WALTER STÖHR GmbH</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/deaata-dark-cranberry</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>DETOX ARTWORK HOODIESweatshirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Collar: Hood Details: Logo print Fit Cut: Relaxed Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/detox-artwork-hoodie-tinted-navy</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>DYLAANO STRAIGHT JEANStraight Jeans Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim straight-leg design that combines timeless style with modern comfort. Made from a blend of organic and recycled cotton with a touch of stretch, they offer optimal ease and a relaxed look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane Trimming: metal zipper nickelfree Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-apsley</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>DYLAANO STRAIGHT JEANStraight Jeans Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim straight-leg design that combines timeless style with modern comfort. Made from a blend of organic and recycled cotton with a touch of stretch, they offer optimal ease and a relaxed look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane (recycled) Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>DYLAANO STRAIGHT JEANStraight Jeans Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim straight-leg design that combines timeless style with modern comfort. Made from a blend of organic and recycled cotton with a touch of stretch, they offer optimal ease and a relaxed look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Our model Claas is 186 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-black-shadow</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>DYLAANO STRAIGHT JEANStraight Jeans Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim straight-leg design that combines timeless style with modern comfort. Made from a blend of organic and recycled cotton with a touch of stretch, they offer optimal ease and a relaxed look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane (recycled) Trimming: metal zipper nickelfree Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-bolsena</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DYLAANOSlim Straight Jeans recycled cotton</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>84,90 €</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim straight-leg desig that combines timeless style with modern comfort. Made from 100% recycled cotton, the rigid, non-stretch fabric ensures a relaxed yet authentic look, ideal for everyday wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Our model Oli is 183 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 85% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-shower</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>DYLAANO STRAIGHT JEANSlim Straight Jeans organic cotton mix Comfort-Stretch</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>84,90 €</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim straight-leg design that combines timeless style with modern comfort. Made from a blend of organic and recycled cotton with a touch of stretch, they offer optimal ease and a relaxed look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Our model Claas is 186 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane (recycled) Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-sinope</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>DYLAANOSlim Straight Jeans recycled cotton</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim straight-leg desig that combines timeless style with modern comfort. Made from 100% recycled cotton, the rigid, non-stretch fabric ensures a relaxed yet authentic look, ideal for everyday wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Our model Oli is 183 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 87% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-solid-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DYLAANOStraight leg mid waist made from an organic cotton blend</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The DYLAANO jeans feature a slim, straight leg design. Made from organic and recycled cotton with a touch of stretch, they offer optimal comfort and give the jeans a relaxed, casual look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 75.0cm, 32: 80.0cm, 34: 85.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% cotton (bio), 20% recycled cotton, 1% elasthane Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/dylaano-tena</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Eco Fashion – Top Labels entdecken die grüne ModeBuch- Eco Fashion</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Papier
+[TRANSPARENCY]
+Transparency Production Production site: Kornwestheim, Germany Producer: Brockhaus Kommissionsgeschäft GmbH</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/eco-fashion-top-labels-entdecken-die-grune-mode-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EMAAL Å ZICK ZACKSweatshirts made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The EMAAL Å ZICK ZACK sweatshirt made from brushed organic cotton is soft and warm to wear. The loose fit ensures comfortable freedom of movement. An embroidered A logo adds a subtle accent and rounds off the clean design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Brushed Optics: A-Logo Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/emaal-a-zick-zack-dark-cranberry</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EMAAL CREWNECK GMT DYESweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The EMAAL CREWNECK GMT DYE sweatshirt stands out with its relaxed fit and soft feel. Made from pure organic cotton, garment-dyed for a unique look, and featuring subtle logo embroidery – a versatile everyday essential. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/emaal-crewneck-gmt-dye-black-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>EMAAL CREWNECK GMT DYESweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The EMAAL CREWNECK GMT DYE sweatshirt stands out with its relaxed fit and soft feel. Made from pure organic cotton, garment-dyed for a unique look, and featuring subtle logo embroidery – a versatile everyday essential. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Halid Nuhu is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/emaal-crewneck-gmt-dye-seagreen-washed-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EMAAL GMT DYE SPRAYSweatshirt made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The EMAAL GMT DYE SPRAY sweatshirt is made from mid-weight organic cotton and garment-dyed, giving each piece a unique look. With a relaxed fit, crew neckline, and graphic print, it offers a modern design without pockets or fastenings. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/emaal-gmt-dye-spray-nightshadow-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>EMAAL HOODIE GMT DYESweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The EMAAL HOODIE GMT DYE impresses with a loose, casual fit, hood and Å logo embroidery. Made from 100% organic cotton, it offers a soft feel and comfort for everyday wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Collar: Hood Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model John Godswill is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/emaal-hoodie-gmt-dye-rosalilly-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>EMAAL OUTGROWN SWEATSHIRTSweatshirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/emaal-outgrown-sweatshirt-pure</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EVAANDenim Jacket made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The EVAAN denim jacket made from heavy, non-stretch denim offers a casual, comfortable fit with a shirt collar and button placket. The patch pockets and high-quality material blend of organic cotton and recycled cotton ensure comfort and style. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Details: Selvedge Fit Cut: Regular Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 80% cotton (bio), 20% recycled cotton Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: SANTUK TEKSTIL SAN. VE TIC. A.S.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/evaan-indigo-haze</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EVAANDenim Jacket made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>84,90 €</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The EVAAN denim jacket made from heavy denim offers a casual, comfortable fit with a shirt collar and button placket. The patch pockets and 100% recycled cotton material ensure comfort and versatility. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Details: Garment Dyed Fit Cut: Regular Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 100% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/evaan-seagreen</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>FAABES HALF ZIP KNIT SWEATERPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Optics: Plain Sleeves: long sleeved Closure type: zipper Collar: Troyer with zipper Fit Cut: Regular Fit Length: Regular Dimensions: 69.5cm Help for size choosing Model size Our model Kyungseok is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal zipper Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/faabes-half-zip-knit-sweater-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FAALINShirt made from an organic cotton blend</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The checked FAALIN shirt combines a classic collar, button placket, and chest pocket with a relaxed, straight cut for a modern silhouette. Made from organic cotton and linen, it’s breathable, pleasantly lightweight, and ensures a comfortable feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Checked Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 80.0cm, 73.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 76% cotton (bio), 24% linen Trimming: Corozo Buttons Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/faalin-scarlet-red</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FAARLO TWEEDScarf made of recycled Organic Wool Mix</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Haptics: Ribbed fabric Optics: Mouliné Sleeves: long sleeved Fit Cut: Regular Fit Dimensions: Width: 24.0cm, Length: 200.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 65% cotton (bio), 35% wool (recycled) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 65% OCS certified organic cotton OCS Blended, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/faarlo-tweed-oatmilk-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>FLAABO FLEECE JACKETFleece Jacket made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our FLAABO FLEECE JACKET made from 100% organic cotton features a relaxed, comfortable fit and a mock neck. Side pockets and a zipper add practical comfort. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Optics: Placement Print Sleeves: long sleeved Pockets: Side pocket Closure type: zipper Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.0cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/flaabo-fleece-jacket-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FLAABO MICRO FLEECE JACKETBomber jacket made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159,90 €</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The FLAABO MICRO FLEECE JACKET, made from brushed organic cotton, features a soft fleece texture and mid-weight feel. It comes with a mock neckline, zipper closure, and side pockets. The check pattern and subtle logo embroidery complete the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Haptics: Brushed Optics: Intarsia print Sleeves: long sleeved Pockets: Side pocket Closure type: zipper Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/flaabo-micro-fleece-jacket-nightshadow</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>FLAABO MICRO FLEECE VESTFleece gilet made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The FLAABO MICRO FLEECE VEST is made from brushed organic cotton with a soft fleece texture. It features a troyer collar, zipper closure, and side pockets. The check pattern, logo embroidery, and straight cut complete the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Haptics: Brushed Optics: Intarsia print Sleeves: long sleeved Pockets: Side pocket Closure type: zipper Collar: Troyer with zipper Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/flaabo-micro-fleece-vest-nightshadow</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>FLAAVIEN STRIPESShirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The loosely cut FLAAVIEN STRIPES shirt made from organic cotton and LENZING™ ECOVERO™ viscose is ideal for spring and summer. A striped pattern, chest pocket, embroidery, and button placket complete the simple design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 77.5cm, 72.0cm Help for size choosing Model size Our model Holger G is 179 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 58% cotton (bio), 42% viscose (LENZING™ ECOVERO™) Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/flaavien-stripes-pigment-blue-morning-sky-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>FLORYAANSweater Relaxed Fit made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The FLORYAAN knitted sweater in a medium-weight knit and relaxed fit features a shirt collar and a practical breast pocket. Made from 100% organic cotton, it is comfortable to wear and versatile. A monochrome classic for relaxed outfits. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: zipper Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 69.5cm Help for size choosing Model size Our model Badhiel  is 189,5 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal zipper Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/floryaan-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>FRAANCODenim jacket made from recycled cotton</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>149,90 €</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The FRAANCO denim jacket, made from heavy denim, features a relaxed straight fit and a classic shirt collar. Patch pockets and a button placket emphasize its timeless look. Crafted from 100% recycled cotton – durable and comfortable to wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Dimensions: 74.5cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 100% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/fraanco-kona</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>GAARDOSweater Regular Fit made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Collar: Roll neck Fit Cut: Regular Fit Dimensions: 70.0cm Help for size choosing Model size Our model Badhiel  is 189,5 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Teksim Giyim Sanayi ve Ticaret A.S.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/gaardo-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>GALAANTESOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Made from lightweight checked woven fabric, our GALAANTES shirt features a straight, comfortable fit. A shirt collar, button placket, chest pocket, and subtle logo embroidery complete the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Checked Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 80.0cm, 73.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/galaantes-tree-shade</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>GAVRAAShirt made from an organic cotton blend</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The GAVRAA shirt in lightweight denim combines a classic shirt collar, button placket, and chest pocket with a relaxed, straight fit. The blend of organic cotton and TENCEL™ Lyocell is soft and ensures a comfortable feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: vorne: 77.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 62% cotton (bio), 38% lyocell (TENCEL™) Trimming: Corozo Buttons Material Info: Light weight denim Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 62% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/gavraa-marsley</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>GAVRAA STRIPESOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Made from organic cotton, the GAVRAA STRIPES shirt is crafted from lightweight woven fabric with a subtle stripe pattern. A shirt collar, button placket, chest pocket, and fine logo embroidery complete the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: front: 77.0cm, back: 79.0cm, 68.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Tumble dry at low temperature Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/gavraa-stripes-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>GAVRAAOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The GAVRAA shirt, made from lightweight woven fabric, features a relaxed fit and a classic shirt collar. A chest pocket is complemented by delicate logo embroidery underneath, while the full-length button placket completes the design. Crafted from 100% organic cotton for a comfortable feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: front: 77.0cm, back: 79.0cm, 68.0cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/gavraa-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>GIAALO GMT DYEOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The GIAALO GMT DYE shirt is made from heavy organic cotton with a touch of elastane for greater freedom of movement. Piece dyeing makes each item unique. With a loose fit and full-length button front, it is simple and comfortable. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 80.0cm, 73.0cm Help for size choosing Model size Unser Model Duncan  ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 97% cotton (bio), 3% elasthane Trimming: Corozo Buttons Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/giaalo-gmt-dye-dark-cranberry</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>GIAALO OVERSHIRTShirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Crafted from heavy woven fabric, the GIAALO OVERSHIRT shirt features a comfortable, straight fit. A shirt collar, button placket, and subtle logo embroidery complete the design. The fabric blend of organic cotton and elastane ensures high wearing comfort. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 80.0cm, 73.0cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 97% cotton (bio), 3% elasthane Trimming: Corozo Buttons Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/giaalo-overshirt-forest-pine</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>GRAANMOPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>54,90 €</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Waffle structure Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Regular Fit Length: Regular Dimensions: 69.5cm Help for size choosing Model size Our model John Godswill is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Teksim Giyim Sanayi ve Ticaret A.S.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/graanmo-lapis-blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GRAANOSSweater Regular Fit made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+MIX &amp; MATCH: Choose any color in the same size and save. The discount will be displayed in your shopping cart. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Regular Fit Dimensions: 69.5cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Teksim Giyim Sanayi ve Ticaret A.S.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/graanos-acid-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>HELMAAR RIB T-SHIRTRib-T-Shirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>34,90 €</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Fit Cut: Fitted Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Ray is 179 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 96% cotton (bio), 4% elasthane Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Buca/Izmir, Turkey Producer: NARKONTEKS DIS TICARET A.S.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/helmaar-rib-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>HENLY GMT DYE LONGSLEEVELangarmshirt aus Bio-Baumwoll Mix</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Ribbed fabric Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Details: no details Fit Cut: Slim Fit Length: Regular Help for size choosing Model size Unser Model Valerio ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 97% Baumwolle (bio), 3% Elasthan Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/henly-gmt-dye-longsleeve-night-sky-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>IAANSlim Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our IAAN jeans feature a slim-leg design that seamlessly blends classic style with exceptional comfort. Crafted from recycled cotton and TENCEL™ x REFIBRA™ Lyocell, the fabric includes a touch of stretch for optimal freedom of movement. Perfect for a versatile and stylish everyday look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Slim Fit Leg shape: Slim leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iaan-coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>IAANSlim Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our IAAN jeans impress with their slim leg and a design that perfectly blends classic style and comfort. The fabric, made from recycled cotton and TENCEL™ x REFIBRA™ Lyocell, offers excellent freedom of movement thanks to a slight amount of stretch. Perfect for a versatile and stylish everyday look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Slim Fit Leg shape: Slim leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal zipper nickelfree Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 79% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iaan-corindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>IAAN SLIM JEANSlim Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Slim Fit Leg shape: Slim leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 82% Baumwolle (recycelt), 14% Lyocell (TENCEL™), 3% Elastomultiester (EME), 1% Elasthan (recycelt) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iaan-slim-jean-coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>IAAN SLIM JEANSlim Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Slim Fit Leg shape: Slim leg Waistband height: Mid waist Length: Regular Dimensions: Innenseitenlänge: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 82% Baumwolle (recycelt), 14% Lyocell (TENCEL™), 3% Elastomultiester (EME), 1% Elasthan (recycelt) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iaan-slim-jean-smoked</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>IAANSlim Jeans recycled Cotton Mix Comfort Stretch</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our IAAN jeans feature a slim-leg design that seamlessly blends classic style with exceptional comfort. Crafted from recycled cotton and TENCEL™ x REFIBRA™ Lyocell, the fabric includes a touch of stretch for optimal freedom of movement. Perfect for a versatile and stylish everyday look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Slim Fit Leg shape: Slim leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Fabio is 188 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 68% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iaan-smoked</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ICONIC Å BAASTI CARGOSweat pants made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ICONIC Å BAASTI CARGO sweatpants, made from mid-weight organic cotton, feature a relaxed fit for maximum comfort. An elastic waistband with drawstring allows for an adjustable fit. Side pockets, cargo pockets on the leg, and an embroidered Å logo complete the design. Elasticated hems with subtle gathering finish the look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Drawstring Details: elastic waistband Fit Cut: Relaxed Fit Dimensions: Innenseitenlänge: 71.5cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-baasti-cargo-nightshadow-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ICONIC Å BAASTI MEL SWEATPANTSweatpants from organic cotton</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>109,90 €</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our ICONIC Å BAASTI MELANGE sweatpants, made from 100% organic cotton, are softly fleece-lined on the inside and offer great wearing comfort. The straight cut in melange optic is paired with a drawstring, side pockets, and subtle logo embroidery. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Melange Pockets: Side pocket Closure type: Drawstring Details: Logo embroidery Fit Cut: Relaxed Fit Leg shape: Tapered leg Dimensions: inseam length: 71.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-baasti-melange-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ICONIC Å CAPICONIC Å CAP | tinted navy-broken white</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: Logo embroidery Fit Cut: Regular Fit
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-cap-tinted-navy-broken-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ICONIC Å CLAASAS COTTONScarf from organic cotton</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Width: 24.0cm, Length: 180.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Wernberg-Köblitz, Germany Producer: WALTER STÖHR GmbH</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-claasas-cotton-candy-apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ICONIC Å EMAAL GMT DYESweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The Iconic Å Brand Capsule is a tribute to our changemakers. Thoughtfully crafted for people who make a difference – the ""Gen Å,"" so to speak. The styles are made from organic cotton and recycled cotton. For the collection, we drew inspiration from timeless classics that never go out of style and remain iconic. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-emaal-gmt-dye-tree-shade-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ICONIC Å GMT DYE SWEATPANTSweat Pants made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Details: elastic waistband Fit Cut: Relaxed Fit Dimensions: Innenseitenlänge: 71.5cm Help for size choosing Model size Unser Model Valerio ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-gmt-dye-sweatpant-night-sky-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ICONIC Å GMT DYE SWEATSHIRTSweatshirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: A-Logo Sleeves: long sleeved Pockets: no pockets Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-gmt-dye-sweatshirt-night-sky-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ICONIC Å GMT DYE TROYERSweatshirt made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ICONIC Å GMT DYE ZIP TROYER is made from mid-weight 100% organic cotton sweat fabric and garment-dyed, giving each piece a unique look. Featuring a zip-up troyer collar, long sleeves, and a relaxed fit, it offers a comfortable and modern design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Closure type: zipper Collar: Troyer with zipper Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Unser Model Holger ist 179 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-gmt-dye-zip-troyer-dark-steel-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ICONIC Å MELANGE HOODIESweathoodie from organic cotton</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ICONIC Å HAANRI MELANGE hoodie, made from 100% organic cotton, features a soft, brushed interior that ensures high wearing comfort. A hood, kangaroo pocket, and logo embroidery give it a classic look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Brushed Optics: Melange Sleeves: long sleeved Pockets: Kangaroo pocket Closure type: no closure Collar: Hood Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Duncan K is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-haanri-melange-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ICONIC Å MELANGE SWEATSHIRTSweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ICONIC Å JOAAN MELANGE sweatshirt, made from 100% organic cotton, has a soft, brushed interior and a relaxed, comfortable fit. A subtle logo embroidery complements the classic design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Brushed Optics: Melange Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-joaan-melange-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ICONIC Å GMT DYE HOODIESweatshirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Kangaroo pocket Closure type: no closure Collar: Hood Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-kiraan-gmt-dye-hoodie-night-sky-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ICONIC Å KIRAAN GMT DYESweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The ICONIC Å KIRAAN GMT DYE sweatshirt is garment-dyed and features a hood and a wide, comfortable fit. Made from 100% organic cotton. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Collar: Hood Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-kiraan-gmt-dye-light-grape-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ICONIC Å MAARKOS GD T-SHIRTT-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Relaxed Fit Length: Regular Help for size choosing Model size Unser Model Valerio ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-maarkos-gd-t-shirt-sand-stone-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ICONIC Å MAARKOS GMT DYEHeavyweight T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-maarkos-gmt-dye-tree-shade-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ICONIC Å MAARKOS MLNGHeavyweight T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Melange Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-maarkos-mlng-blue-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ICONIC Å MEL LOOP SWEATSHIRTSweatshirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Melange Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-mel-loop-sweatshirt-pure</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ICONIC Å NILDAAO COTTONHat from organic cotton</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Height: 20.5cm, Width: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Wernberg-Köblitz, Germany Producer: WALTER STÖHR GmbH</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-nildaao-cotton-candy-apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SAROMIAAN SWEATJACKETSweat Jacket made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Kangaroo pocket Closure type: zipper Collar: Hood Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Unser Model Aziz  ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-saromiaan-sweatjacket-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ICONIC Å YENAASCap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The Iconic Å Brand Capsule is a tribute to our changemakers. Carefully crafted for people who make the difference - the ‘Gen Å’. For the collection, we were inspired by classics that never go out of fashion and remain iconic. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: Logo embroidery Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/iconic-a-yenaas-emerald-green</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>JAACQUE LINOShorts made of Linen Mix</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Drawstring Details: elastic waistband Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Ending above knee Dimensions: inseam length: 16.0cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 65% viscose (LENZING™ ECOVERO™), 35% linen Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaacque-lino-seagreen</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>JAAMEO BAGGY JEANBaggy Jeans recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new JAAMEO baggy jeans offer a relaxed fit, sitting loosely on the hips with wide legs and a classic button placket. Crafted from 100% recycled cotton in a rigid, non-stretch fabric, they provide outstanding comfort—perfect for achieving a laid-back and cool denim look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button placket Fit Cut: Baggy fit Leg shape: Wide leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing Model size Our model Duncan is 188 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 88% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaameo-daydream</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>JAAMEO BAGGY JEANBaggy Jeans recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new JAAMEO baggy jeans sit loosely on the hips and feature a wide leg with a classic button placket. Made from 100% recycled cotton and firm, non-stretch fabric that feels exceptionally comfortable – ideal for a laid-back denim look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Pockets: 5-Pocket Closure type: Button placket Fit Cut: Baggy fit Leg shape: Wide leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 30: 71.0cm, 32: 76.0cm, 34: 81.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size 32/32
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 81% GRS certified recycled GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaameo-dione</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>JAAMEOWide leg mid waist made from recycled cotton</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new JAAMEO baggy jeans sit low on the hips and feature a wide leg with a classic button fly. Made from 100% recycled cotton in a sturdy, non-stretch fabric that’s exceptionally comfortable – perfect for a laid-back denim look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button placket Fit Cut: Baggy fit Leg shape: Wide leg Waistband height: Mid waist Length: long Dimensions: Innenseitenlänge: 30: 73.0cm, 32: 78.0cm, 34: 83.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 100% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaameo-ebony-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>JAAMES ANGELST-Shirt Regular Fit made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>19,90 €</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Robbi is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-angels-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>JAAMES ARMEDANGELST-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Halid Nuhu is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-armedangels-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>JAAMES BRUSHED T-SHIRTT-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Shoulder: Regular shoulder Help for size choosing Model size Our model Dor Abu is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-brushed-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>JAAMES COLOREDT-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>19,90 €</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model John Godswill is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-colored-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>JAAMEST-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Discover our bestseller: the JAAMES T-shirt. A classic T-shirt with a comfortable fit made from soft, light weight organic cotton that no closet should be without. Perfect for every day and versatile! Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Unser Model Holger ist 179 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-dark-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>JAAMES DIFFERENCET-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-difference-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>JAAMES LONGSLEEVE BRUSHEDLongsleeve made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Regular Fit Length: Regular
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-longsleeve-brushed-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>JAAMES LONGSLEEVELongsleeve made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+MIX &amp; MATCH: CHOOSE ANY COLOR IN THE SAME SIZE AND SAVE. The discount will be displayed in your shopping cart. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Dor Abu is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-longsleeve-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>JAAMES T-SHIRTT-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Shoulder: Regular shoulder Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-night-sky-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>JAAMES SMILEYT-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-smiley-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>JAAMES STRUCTURET-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Flamé Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Holger G is 179 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-structure-green-ash-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>JAAMES STRUCTURE NEWT-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Flamé Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-structure-new-pure-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>JAAMES V-NECKT-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>19,90 €</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: V-neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model Badhiel  is 189,5 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaames-v-neck-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>JAANNO RIB TANK TOPOrganic cotton mix ribbed top</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: sleeveless Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Fitted Dimensions: 70.0cm Help for size choosing Model size Our model Ray is 179 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 96% cotton (bio), 4% elasthane Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Buca/Izmir, Turkey Producer: NARKONTEKS DIS TICARET A.S.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jaanno-rib-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>JUPILAA STRIPED UN-WASTEDBeanie made from an alpaca blend</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Ribbed fabric Optics: Striped Fit Cut: Regular Fit Dimensions: Höhe: 21.0cm, Breite: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 78% alpaca, 22% polaymide (recycled) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 78% RAS certified responsible alpaca RAS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jupilaa-striped-un-wasted-black-dark-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>JUPILAA STRIPED UN-WASTEDBeanie made from an alpaca blend</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Ribbed fabric Optics: Striped Fit Cut: Regular Fit Dimensions: Höhe: 21.0cm, Breite: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 70% alpaca, 23% polaymide (recycled), 7% wool (bio) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 70% RAS certified responsible alpaca RAS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jupilaa-striped-un-wasted-emergency-red-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>JUPILAA STRIPED UN-WASTEDBeanie made from an alpaca-wool blend</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Ribbed fabric Optics: Striped Fit Cut: Regular Fit Dimensions: Höhe: 21.0cm, Breite: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 44% alpaca, 29% wool (bio), 27% polaymide (recycled) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 44% RAS certified responsible alpaca RAS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/jupilaa-striped-un-wasted-oliva-dark-purple-stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>KAAINO SOCKSSocks made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>19,90 €</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Mouliné Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 90% cotton (bio), 9% polaymide (recycled), 1% elasthane Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/kaaino-night-sky-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>KAAINO TERRYSocks made from an organic cotton blend</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Melange Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 90% cotton (bio), 9% polaymide (recycled), 1% elasthane Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/kaaino-terry-dark-cranberry-scarlet-red</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>KAALLA FAIR ISLESweater made of recycled Organic Wool Mix</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The KAALLA FAIR ISLE sweater features a straight cut and a bold chunky knit pattern in classic Fair Isle style. The striking graphic pattern recalls traditional Nordic motifs. The blend of organic cotton and wool provides a soft and warming feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Fit Cut: Regular Fit Dimensions: 70.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 61% cotton (bio), 29% wool (recycled), 10% wool (bio) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/kaalla-fair-isle-silver-melange-dusty-orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>KAALVES GMT DYEPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The KAALVES GMT DYE sweater, made from 100% organic cotton, features a straight fit and a high collar with zipper. The troyer-style design makes it a versatile staple and ensures comfortable wear. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Sleeves: long sleeved Closure type: zipper Collar: Troyer with zipper Fit Cut: Regular Fit Length: Regular Dimensions: 67.0cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal zipper Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/kaalves-gmt-dye-forest-pine</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>KAARDON ICONICCardigan Relaxed Fit made of Organic Merino Wool</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>109,90 €</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The KAARDON ICONIC knitted cardigan, made with fine knit and a relaxed fit, effortlessly combines comfort and style. The mock turtleneck and subtle Å-logo add a touch of urban elegance. Crafted from 100% organic Merino wool and featuring a button placket, it stands out with its high-quality craftsmanship and modern design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Optics: A-Logo Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: Roll neck Fit Cut: Relaxed Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Oli Cook is 183 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% wool (bio) Material Info: Fine knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/kaardon-iconic-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>KATARINAAScarf made of recycled Cashmere Mix</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The KATARINAA scarf, made from recycled cashmere and wool, offers a soft wearing comfort. The fabric blend ensures warmth and a cozy feel on chilly days. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Width: 46.0cm, Length: 180.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material:  95% cashmere (recycled), 5% wool (recycled) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 95% GRS certified recycled cashmere and 5% recycled wool GRS, CU-1085700 Production Production site: Wernberg-Köblitz, Germany Producer: WALTER STÖHR GmbH</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/katarinaa-steel-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>KEAANDenim Shorts made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button Fit Cut: Loose Fit Waistband height: Mid waist Length: Short Dimensions: inseam length: 27.0cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 80% cotton (bio), 20% recycled cotton Trimming: metal buttons Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/keaan-uranus</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>KEDAAWYANJacket made of Organic Wool Mix</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>209,90 €</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The KEDAAWYAN fine knit jacket with stand-up collar combines patched pockets and color-contrasting cuffs for a laid-back look. The fabric blend of organic cotton, wool, and recycled polyamide is soft, warming, and comfortable. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Side pocket Closure type: zipper Collar: Bomberjacket Collar Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 77% cotton (bio), 18% wool (bio), 5% polaymide (recycled) Material Info: Fine knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/kedaawyan-black-steel-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>KLAAUS BOXER SHORTSBoxer made of TENCEL™ Modal Mix</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>17,90 €</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Life is like underwear, change is good - KLAAUS is our new body-hugging boxer trunk. It has a slightly shorter leg than our boxer brief RICAARD. Elastic single jersey made of 95% TENCEL™ modal and 5% elastane feels super soft on the skin and keeps the perfect fit at all times in combination with the same colored elastic waistband. Attention: KLAAUS is also available in a value pack! Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: elastic waistband Fit Cut: Fitted Help for size choosing Model size Our model John Godswill is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 95% modal (TENCEL™), 5% elasthane Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Buca/Izmir, Turkey Producer: NARKONTEKS DIS TICARET A.S.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/klaaus-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>KNIT LONGSLEEVE POLOSHIRTPullover aus Bio-Baumwolle</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Collar: polo collar Fit Cut: Slim Fit Length: Regular Dimensions: 69.5cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/knit-longsleeve-poloshirt-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>LAARONHeavyweight T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our LAARON T-shirt promises casual chic. Made from medium-weight jersey and with a striking Å logo, the shirt offers you the basis for uncomplicated outfits. Made from organic cotton and with a relaxed cut, LAARON combines comfort and style. Available in classic black, white and a selection of seasonal colors, it's a must-have for any wardrobe. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/laaron-dark-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>LAARSShirt made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The LAARS long-sleeve shirt made from organic cotton features a lightweight, solid-colored design. The classic collar, crew neckline, and button placket emphasize its timeless look, while the straight, comfortable fit allows for versatile styling options. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Fit Cut: Regular Fit Length: Regular Dimensions: 76.0cm, 72.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/laars-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>LELEAABeanie made of recycled Cashmere Mix</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Height: 23.0cm, Width: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 95% Kaschmir (recycled), 5% wool (recycled) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 95% GRS certified recycled cashmere and 5% recycled wool GRS, CU-1085700 Production Production site: Wernberg-Köblitz, Germany Producer: WALTER STÖHR GmbH</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/leleaa-orchid</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>LEOPARD SOCKSSocks made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>14,90 €</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Jaquard Print Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 85% Baumwolle (bio), 13% Polyamid (recycelt), 2% Elasthan Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/leopard-socks-pink-mist</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>LINEN LONGSLEEVE SHIRTShirt made of Linen</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 77.5cm, 74.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Leinen Trimming: Corozo Buttons Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at high temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/linen-longsleeve-shirt-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>LOUKAA KNIT SWEATERPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Fit Cut: Regular Fit Length: Regular Dimensions: 69.5cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/loukaa-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>LOUKAA FINE STRIPE SWEATERLOUKAA FINE STRIPE SWEATER | silver melange-mars red</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Fit Cut: Regular Fit Dimensions: 69.5cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/loukaa-fine-stripe-sweater-silver-melange-mars-red</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>LOUKAA FINE STRIPESPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Fit Cut: Regular Fit Dimensions: 69.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/loukaa-fine-stripes-night-sky-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>LOUKAA STRIPESPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>54,90 €</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Pockets: no pockets Closure type: no closure Fit Cut: Regular Fit Length: Regular Dimensions: 69.5cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Teksim Giyim Sanayi ve Ticaret A.S.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/loukaa-stripes-night-sky-lapis-blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>LOVAAR CLOVERShirt made of TENCEL™ Lyocell Mix</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The LOVAAR CLOVER shirt made from TENCEL™ Lyocell and organic cotton features a loose fit and offers great wearing comfort. A bold placement print and delicate embroidery give the design a unique touch. A shirt collar, chest pocket, and button placket complete the look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: V-neck Optics: Intarsia print Sleeves: short sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Dimensions: 75.5cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 54% lyocell (TENCEL™), 46% cotton (bio) Trimming: Corozo Buttons Material Info: Mid weight woven Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/lovaar-clover-undyed-pigment-blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>LOVAAR LINOLinen mix shirt</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>54,90 €</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: V-neck Optics: Plain Sleeves: short sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Dimensions: 75.5cm Help for size choosing Model size Our model Jasper is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 65% viscose (LENZING™ ECOVERO™), 35% linen Trimming: Corozo Buttons Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/lovaar-lino-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>LUAANODenim Shorts made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Drawstring Fit Cut: Regular Fit Waistband height: Mid waist Length: Short Dimensions: inseam length: 21.0cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 62% cotton (bio), 38% lyocell (TENCEL™) Material Info: Light weight denim Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/luaano-powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>LUGAAOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The LUGAA long sleeve shirt offers a casual, loose fit with a classic shirt collar, chest pocket and button placket. Made from 100% organic cotton, the jersey fabric ensures a pleasant feel and urban comfort. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/lugaa-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>LUKAA LINO PANTWoven Pants made of Linen-Mix</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+LUKAA LINO is a fabric trouser with a twill texture and a straight cut. The mid-rise waist and elastic waistband with a drawstring ensure a comfortable fit. The blend of LENZING™ ECOVERO™ viscose and linen gives the fabric a soft and pleasant feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Twill structure Optics: Plain Pockets: Patched pocket Closure type: Drawstring Details: elastic waistband Fit Cut: Regular Fit Leg shape: Straight leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 79.0cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 65% viscose (LENZING™ ECOVERO™), 35% linen Material Info: Mid weight woven Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/lukaa-lino-sandstone</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MAAKX CORDUROYCorduroy Pants made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>129,90 €</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The MAAKX CORDUROY trousers feature a relaxed cut with a tapered leg. Made from robust corduroy fabric of organic and recycled cotton, they add a casual touch to your outfit. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Corduroy Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Relaxed Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal buttons Material Info: Heavy weight woven Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 80% OCS certified organic cotton OCS Blended, CU-1085700 20% RCS certified recycled cotton RCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maakx-corduroy-black-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>MAAKX INDIGO CORDCorduroy pants made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The MAAKX INDIGO CORD trousers feature a relaxed cut with a tapered leg. Made from robust corduroy fabric of 100% organic cotton, they offer great freedom of movement and add a casual touch to your outfit. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Corduroy Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Relaxed Fit Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal buttons Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maakx-indigo-cord-indigo-corduroy</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>MAARCO FCShorts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>34,90 €</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The sweat short MAARCO FC is part of the exclusive and limited collection collaboration between Armedangels and 1. FC Köln. The styles are made to Armedangels' high standards and are inspired by the iconic jerseys of 1. FC Köln and the trends of the 90s. The collection is excluded from all discount promotions. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Drawstring Details: Embroidery Fit Cut: Regular Fit Leg shape: Straight leg Dimensions: inseam length: 23.0cm, 51.0cm Help for size choosing Model size Our model Günce is 179 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarco-fc-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>MAARCOLOS COMFORTShorts made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>44,90 €</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Drawstring Details: Embroidery Fit Cut: Regular Fit Leg shape: Straight leg Dimensions: inseam length: 23.0cm Help for size choosing Model size Our model Kyungseok is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarcolos-comfort-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>MAARIOPolo T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: Button placket Collar: polo collar Details: side slits Fit Cut: Regular Fit Length: Regular Dimensions: 74.0cm Help for size choosing Model size Our model John is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maario-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>MAARIO POLOSHIRTPolo T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: Button placket Collar: polo collar Details: side slits Fit Cut: Regular Fit Length: Regular Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maario-poloshirt-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>MAARIO STRIPESPolo T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: short sleeved Pockets: no pockets Closure type: Button placket Collar: polo collar Details: side slits Fit Cut: Regular Fit Length: Regular Dimensions: 74.0cm Help for size choosing Model size Our model Claas is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maario-stripes-night-sky-broken-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>MAARKCardigan made from an organic wool blend</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>259,90 €</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The MAARK cardigan features a clean design and a straight, comfortable fit. A shirt collar and chest pocket emphasize its timeless look. Made from organic cotton and organic wool, it is breathable and pleasantly warm. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: no details Fit Cut: Regular Fit Dimensions: 67.0cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 65% cotton (bio), 35% wool (bio) Trimming: metal buttons Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maark-steel-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>MAARKOS ARMEDANGELSHeavyweight T-Shirt made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Holger G is 179 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-armedangels-green-ash</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>MAARKOS BOLD STRIPEST-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-bold-stripes-oatmilk-seagreen</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>MAARKOS CHANGEMAKERST-shirt made from an organic cotton blend</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Unser Model Duncan  ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-changemakers-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MAARKOS CHANGES T-SHIRTT-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Relaxed Fit Length: Regular Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-changes-t-shirt-pure</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>MAARKOS CHANGESHeavyweight T-Shirt  made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>34,90 €</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified recycled cotton GRS, CU-1085700 50% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-changes-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>MAARKOSHeavyweight T-Shirt  made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The MAARKOS T-shirt combines a relaxed, comfortable fit with a pleasant material blend of organic cotton and recycled cotton. The heavy jersey fabric gives you a particularly durable and premium feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Duncan  is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-dark-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MAARKOS  DETOX T-SHIRTT-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Relaxed Fit Length: Regular Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio), Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-detox-t-shirt-tinted-navy</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>MAARKOS GMT DYEHeavyweight T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-gmt-dye-black-washed</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>MAARKOS HEAVY WEIGHT T-SHIRTT-Shirt made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Shoulder: Dropped shoulder Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 50% Baumwolle (bio), 50% Baumwolle (recycelt) Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 50% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-heavy-weight-t-shirt-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>MAARKOS ICONIC ÅHeavyweight T-Shirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>34,90 €</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The Iconic Å Brand Capsule is a tribute to our changemakers. Thoughtfully crafted for people who make a difference – the ""Gen Å,"" so to speak. The styles are made from organic cotton and recycled cotton. For the collection, we drew inspiration from timeless classics that never go out of style and remain iconic. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-iconic-a-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>MAARKOS IKOGRAPHMidweight T-Shirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-ikograph-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>MAARKOS L. FREE SWIMT-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-l-free-swim-blue-noon</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>MAARKOS LIGHT SUNT-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo print Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-light-sun-seagreen</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>MAARKOS LINOT-Shirt made of Linen-Mix</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>34,90 €</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: side slits Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Do is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 70% cotton (bio), 30% linen Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-lino-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>MAARKOS LS BRUSHEDLongsleeve made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: rolled edges Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Olli Cook is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-ls-brushed-space-steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>MAARKOS LS STRIPES BRLongsleeve made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: rolled edges Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Duncan  is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-ls-stripes-br-silver-melange-dark-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>MAARKOS LS WAFFLE ZIPLongsleeve made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Waffle structure Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: zipper Collar: polo collar Cuff: Ribbed cuffs Details: no details Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-ls-waffle-zip-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>MAARKOS MID WEIGHT T-SHIRTT-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Shoulder: Dropped shoulder Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-mid-weight-t-shirt-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>MAARKOS MULTI STRIPES T-SHIRTT-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: Logo embroidery Fit Cut: Relaxed Fit Length: Regular Help for size choosing Model size Unser Model Valerio ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-multi-stripes-t-shirt-tinted-navy-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>MAARKOS OUTGROWN T-SHIRTT-Shirt made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Relaxed Fit Length: Regular Help for size choosing Model size Unser Model Valerio ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 50% Baumwolle (bio), 50% Baumwolle (recycelt) Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 50% OCS. certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-outgrown-t-shirt-fatigue-green</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>MAARKOS POCKETMidweight T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: Chest pocket Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model John Godswill is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-pocket-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>MAARKOS POCKET STRIPEST-shirts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: short sleeved Pockets: Chest pocket Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model John Godswill is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Light weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-pocket-stripes-early-yellow-broken-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>MAARKOS POLO TERRYSweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: no closure Collar: Troyer with zipper Details: no details Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Kyungseok is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-polo-terry-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>MAARKOS PRESERVEHeavyweight T-Shirt  made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 50% cotton (bio), 50% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified recycled cotton GRS, CU-1085700 50% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-preserve-pure</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>MAARKOS PROTECTEDLong sleeve made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>44,90 €</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Pockets: no pockets Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Unser Model Olli ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-protected-pure</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>MAARKOS RINGERMidweight T-Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Colourblock Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: cuffs of contrasting colour Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Holger is 179 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Becri - Malhas e Confecções  S.A.</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-ringer-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>MAARKOS UN-WASTED T-SHIRTT-Shirt made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 50% Baumwolle (bio), 50% Baumwolle (recycelt), Hauptmaterial: 100% Baumwolle (bio) Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified, recycled Cotton GRS, CU-1085700 50% OCS certified organic cotton OCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-un-wasted-t-shirt-pure</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>MAARKOS WIKIPEDIAHeavyweight T-Shirt  made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>34,90 €</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Knowledge changes the world. This limited capsule by ARMEDANGELS and Wikipedia stands for transparency, responsibility, and change – made from up to 100% recycled cotton. Wear your values. Wikipedia and its trademarks are used with permission from the Wikimedia Foundation, the nonprofit that supports Wikipedia, its 265,000 global volunteers and keeps its high-quality knowledge freely accessible. Donate to Wikipedia at donate.wikimedia.org Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Fit Cut: Relaxed Fit Length: Regular Dimensions: 74.5cm Help for size choosing Model size Our model Kyungseok is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 100% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/maarkos-wikipedia-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>MICHAAEL MOULINEJumper made from an organic cotton blend</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The MICHAAEL MOULINE knit sweater features chunky mouliné knitting and a distinctive ribbed texture. Made from organic cotton and recycled wool, it provides breathable warmth. A relaxed fit, zip-up troyer collar, and ribbed trims ensure casual comfort. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Ribbed fabric Optics: Mouliné Sleeves: long sleeved Closure type: zipper Collar: Troyer with zipper Cuff: Ribbed cuffs Fit Cut: Relaxed Fit Dimensions: 67.0cm Help for size choosing Model size Unser Model Olli Cook ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 74% cotton (bio), 26% wool (recycled) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 26% RCS certified recycled wool RCS Blended, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/michaael-mouline-night-sky-frozen-lavender-light-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>MIKAAS WIKIPEDIAHeavyweight T-Shirt  made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+This tee made from 100% recycled cotton is in harmony with the planet, using materials that work with nature, not against it. Because when we understand the impact of our choices, knowledge empowers us to do better — after all, you can’t change what you don’t know. The Blue Marble, Wikipedia, CC BY-SA 4.0. Wikipedia and its trademarks are used with permission from the Wikimedia Foundation, the nonprofit that supports Wikipedia, its 265,000 global volunteers and keeps its high-quality knowledge freely accessible. Donate to Wikipedia at donate.wikimedia.org Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: short sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Oversized Fit Dimensions: 74.0cm Help for size choosing Model size Our model Kyungseok is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Material Info: Heavy weight jersey Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 100% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/mikaas-wikipedia-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>MIKITAAPullover made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The MIKITAA fine-knit sweater features a simple look with a round neck and a comfortable, straight fit. The blend of organic cotton and organic wool ensures comfortable wear, is breathable, and provides pleasant warmth. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Fit Cut: Regular Fit Dimensions: 69.5cm Help for size choosing Model size Our model Duncan is 188 cm tall and wears size M
+[MATERIAL]
+Material &amp; Care Material Main material: 85% cotton (organic), 15% wool (organic) Material Info: Fine knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/mikitaa-true-camel</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>NAAILODenim Shorts made of recycled Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Slim Fit Waistband height: Mid waist Length: Short Dimensions: inseam length: 28.0cm Help for size choosing Model size Our model Do is 186 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 79% recycled cotton, 17% lyocell (TENCEL™ x REFIBRA™), 3% elastomultiester (EME), 1% elasthane (recycled) Trimming: metal zipper nickelfree Material Info: Heavy weight denim Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 64% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/naailo-black-washed-authentic</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>NAAILO DENIM SHORTDenim Shorts made of Organic Cotton Hemp Mix</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: 5-Pocket Closure type: Button &amp; zipper Fit Cut: Slim Fit Waistband height: Mid waist Length: Short Dimensions: inseam length: 28.0cm Help for size choosing Model size Our model Halid is 188 cm tall and is wearing size 32
+[MATERIAL]
+Material &amp; Care Material Main material: 84% cotton (bio), 14% hemp fibre, 2% elasthane Trimming: metal buttons Material characteristic: Comfort-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Saray Tekirdag, Turkey Producer: Pure Village Tekstil A.S.</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/naailo-jupiter</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ORAAN TERRYShorts from organic cotton</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: Drawstring Details: no details Fit Cut: Regular Fit Leg shape: Straight leg Dimensions: inseam length: 17.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified recycled cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/oraan-terry-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>OTTAAJumper made of organic wool</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The OTTAA knit sweater in chunky knit stands out with its bold striped pattern. Featuring a crew neckline, long sleeves, and ribbed trims, it offers a timeless silhouette. Made from 100% organic wool, it provides breathable warmth and a comfortable feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Cuff: Ribbed cuffs Fit Cut: Regular Fit Help for size choosing Model size Unser Model Duncan ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% wool (bio) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/ottaa-light-oak</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>PAABLOCoat made of recycled Wool</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>279,90 €</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our new PAABLO coat, made from 100% recycled wool, features a timeless look with stand-up collar and welt pocket. The wool keeps you warm and ensures a comfortable feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Welt pocket Closure type: Button placket Details: no details Fit Cut: Relaxed Fit Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% wool (recycled) Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Professional dry-cleaning in: perchloroethylene, hydrocarbons (heavy benzines)
+[TRANSPARENCY]
+Transparency Certifications 100% GRS certified recycled wool GRS, CU-1085700 Production Production site: Viseu, Portugal Producer: Gouveia &amp; Campos SA Goucam</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/paablo-mid-grey-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>PAANAOOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Checked Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/paanao-moonlight-gray-misty-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>PAARLO FLEECE HOODIESweathoodie from organic cotton</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The PAARLO FLEECE hoodie is made from soft, brushed organic cotton and feels pleasant against the skin. The hood, kangaroo pocket, and subtle logo embroidery round off the relaxed design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Kangaroo pocket Closure type: no closure Collar: Hood Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/paarlo-fleece-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>PAARLO FREE SWIMSweathoodie from organic cotton</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>84,90 €</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The PAARLO FREE SWIM hoodie in soft organic cotton stands out with its casual fit. The hood and kangaroo pocket complement the bold graphic print and create a harmonious overall look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Placement Print Sleeves: long sleeved Pockets: Kangaroo pocket Closure type: no closure Collar: Hood Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/paarlo-free-swim-blue-noon</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>PAARLO LOOP HOODIESweathoodie from organic cotton</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The PAARLO LOOP hoodie made from 100% organic cotton offers comfortable wear thanks to its relaxed fit. A hood, kangaroo pocket, and subtle logo embroidery give it a timeless, laid-back look. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Kangaroo pocket Closure type: no closure Collar: Hood Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Duncan  is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/paarlo-loop-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>PASAALOOvershirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The PASAALO jacket in heavy woven fabric features a relaxed fit and classic shirt collar. Made from organic cotton, it provides comfort in all kinds of weather. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 71.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Heavy weight woven Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/pasaalo-light-oak</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PIGMENT DYE KNIT JACKETCardigan made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>149,90 €</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: High neck / mock-neck Haptics: Ribbed fabric Optics: Plain Sleeves: long sleeved Closure type: zipper Fit Cut: Regular Fit Length: Regular Dimensions: 69.0cm Help for size choosing Model size Unser Model Aziz  ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Trimming: metal zipper Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Teksim Giyim Sanayi ve Ticaret A.S.</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/pigment-dye-knit-jacket-fatigue-green</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PIGMENT DYE RIB KNIT SWEATERSweater made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Ribbed fabric Optics: Plain Sleeves: long sleeved Fit Cut: Regular Fit Length: Regular Dimensions: 69.0cm Help for size choosing Model size Unser Model Aziz  ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Teksim Giyim Sanayi ve Ticaret A.S.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/pigment-dye-rib-knit-sweater-light-tinted-navy</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>PIGMENT DYE SLEEVELESS VESTSlipover made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: V-neck Haptics: Ribbed fabric Optics: Plain Sleeves: sleeveless Fit Cut: Regular Fit Length: Regular Dimensions: 68.0cm Help for size choosing Model size Unser Model Aziz  ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Teksim Giyim Sanayi ve Ticaret A.S.</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/pigment-dye-sleeveless-vest-light-tinted-navy</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>QUAASA STRIPESOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>64,90 €</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 76.0cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Mid weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/quaasa-stripes-night-sky-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>QUAASA STRIPE LONGSLEEVE SHIRTOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 77.0cm Shoulder: Regular shoulder Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Mid weight woven Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/quaasa-stripes-white-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>QUAASA LONGSLEEVE SHIRTOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 77.0cm Shoulder: Regular shoulder Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Mid weight woven Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/quaasa-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>RICAARD BOXER SHORTSBoxer made of TENCEL™ Modal Mix</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>17,90 €</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Life is like underwear, change is good - RICAARD is our boxer shorts. Elastic single jersey made of 95% TENCEL™ Modal and 5% elastane feels super soft on the skin and, in combination with the elastic waistband of the same color, always maintains a perfect fit. Attention: RICAARD is also available in a value pack. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: elastic waistband Fit Cut: Fitted Help for size choosing Model size Our model Jonathan is 178 m tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 95% modal (TENCEL™), 5% elasthane Material Info: Mid weight jersey Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Buca/Izmir, Turkey Producer: NARKONTEKS DIS TICARET A.S.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/ricaard-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>RICAARD RIB BOXER SHORTSRib-Boxer made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>22,90 €</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Fitted Help for size choosing Model size Our model Badhiel is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 96% cotton (bio), 4% elasthane Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Buca/Izmir, Turkey Producer: NARKONTEKS DIS TICARET A.S.</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/ricaard-rib-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>RYAANO BOXER SHORTSBoxer made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>19,90 €</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: elastic waistband Fit Cut: Fitted Help for size choosing Model size Our model Aaron is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 91% cotton (bio), 9% elasthane Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Buca/Izmir, Turkey Producer: NARKONTEKS DIS TICARET A.S.</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/ryaano-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>SAABE STRIPED UN-WASTEDScarf made from an alpaca-wool blend</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The SAABE STRIPED UN-WASTED scarf in mid-weight knit adds a modern touch to any outfit with its striped pattern. The blend of alpaca, organic wool, and recycled polyamide is soft, durable, breathable, and pleasantly warm. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Striped Fit Cut: Regular Fit Dimensions: Breite: 28.0cm, Länge: 240.0cm Help for size choosing Model size Unser Model Sophia ist 176 cm groß und trägt Größe S
+[MATERIAL]
+Material &amp; Care Material Main material: 70% alpaca, 23% polaymide (recycled), 7% wool (bio) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 70% RAS certified responsible alpaca RAS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saabe-striped-un-wasted-emergency-red-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>SAABE STRIPED UN-WASTEDScarf made from an alpaca-wool blend</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The SAABE STRIPED UN-WASTED scarf in mid-weight knit adds a modern touch to any outfit with its striped pattern. The blend of alpaca, organic wool, and recycled polyamide is soft, durable, breathable, and pleasantly warm. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Striped Fit Cut: Regular Fit Dimensions: Breite: 28.0cm, Länge: 240.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 78% alpaca, 22% polaymide (recycled) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 78% RAS certified responsible alpaca RAS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saabe-striped-un-wasted-light-caramel-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>SAABE STRIPED UN-WASTEDScarf made from an alpaca-wool blend</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The SAABE STRIPED UN-WASTED scarf in mid-weight knit adds a modern touch to any outfit with its striped pattern. The blend of alpaca, organic wool, and recycled polyamide is soft, durable, breathable, and pleasantly warm. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Striped Fit Cut: Regular Fit Dimensions: Breite: 28.0cm, Länge: 240.0cm Help for size choosing Model size Unser Model Sophia ist 176 cm groß und trägt Größe S
+[MATERIAL]
+Material &amp; Care Material Main material: 44% alpaca, 29% wool (bio), 27% polaymide (recycled) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 44% RAS certified responsible alpaca RAS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saabe-striped-un-wasted-oliva-dark-purple-stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>SAALVOSocks in organic cotton mix</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>9,90 €</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 85% cotton (bio), 13% polaymide (recycled), 2% elasthane Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saalvo-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>SAAMUS BOLDSocks in organic cotton mix</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>9,90 €</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 78% cotton (bio), 20% polaymide (recycled), 2% elasthane Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saamus-bold-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>SAAMUS BOLDSocks made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>14,90 €</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: A-Logo Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 78% cotton (bio), 20% polaymide (recycled), 2% elasthane Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saamus-bold-black-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>SAAMUS BOLD SOCKSSocks made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>14,90 €</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 78% Baumwolle (bio), 20% Polyamid (recycelt), 2% Elasthan Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saamus-bold-socks-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>SAAMUS SHORTSocks made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>14,90 €</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: A-Logo Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 78% cotton (bio), 20% polaymide (recycled), 2% elasthane Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saamus-short-dark-morning-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>SAAMUS SHORT SOCKSSocks made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>14,90 €</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: A-Logo Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 78% Baumwolle (bio), 20% Polyamid (recycelt), 2% Elasthan Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saamus-short-socks-pure-armedangels-yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>SAAMUS SHORT WIKIPEDIASocks in organic cotton mix</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>9,90 €</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Small steps, smart choices. Just like a single wiki edit can change a story, every choice shapes the future. Walk the talk with socks that support the facts. Wikipedia and its trademarks are used with permission from the Wikimedia Foundation, the nonprofit that supports Wikipedia, its 265,000 global volunteers and keeps its high-quality knowledge freely accessible. Donate to Wikipedia at donate.wikimedia.org Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 78% cotton (bio), 20% polaymide (recycled), 2% elasthane Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saamus-short-wikipedia-hyperlink-blue-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>SAAMYCorduroy shirt made of organic cotton mix</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The SAAMY long-sleeve shirt stands out with its relaxed fit and lightweight baby corduroy fabric. A shirt collar, embroidery, and button placket complete the timeless design made from 100% organic cotton. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Relaxed Fit Length: Regular Dimensions: 80.0cm, 73.0cm Help for size choosing Model size Our model Jun is 189 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Light weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Tumble dry at low temperature Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saamy-light-sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>SAANDONBlouson Jacket Regular Fit made of Polyamid Mix (recycled)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>139,90 €</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+SAANDON is our GRS certified, lined jacket with a cool matte look but with warming lining made of 100% recycled polyester (post-consumer). Main material: 100% recycled polyamide (pre-consumer).  Perfect worn by itself or for trans-seasonal layering looks. Stylish with modern square quilting, kangaroo patch pocket, logo snaps and inside patch pocket. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% polaymide (recycled), Lining: 100% polyester (recycled), Padding: 100% polyester (recycled) Trimming: metal buttons Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% GRS certified recycled polyamide, 50% GRS certified recycled polyester GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Carvalhosa, Portugal Producer: Petratex confeccoes  S.A.</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/saandon-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>SEBAASJacket made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>179,90 €</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The SEBAAS field jacket, made from pure organic cotton, combines patch pockets, a button placket, and a shirt collar with a relaxed, comfortable fit. Featuring a crew neckline and long sleeves, it’s versatile to style and offers a naturally breathable feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Dimensions: 70.0cm Help for size choosing Model size Unser Model Duncan ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal buttons Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/sebaas-dark-steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>SNOWAABeanie made of Mohair Wool Mix</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Height: 21.5cm, Width: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 50% mohair, 50% wool (bio) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 50% RWS certified responsible wool RWS, CU-1085700 50% RMS certified responsible mohair RMS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/snowaa-emerald-green</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>SNOWAA STAMPATOBeanie made of Mohair Wool Mix</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Fit Cut: Regular Fit Length: Regular Dimensions: Height: 21.5cm, Width: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 64% wool (bio), 36% mohair Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 64% RWS certified wool RWS, CU-1085700 36% RMS certified mohair RMS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/snowaa-stampato-orchid-walnut-creme</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>SOMAANOvershirt Regular Fit made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The SOMAAN corduroy overshirt combines a straight, comfortable cut with a classic shirt collar and a practical breast pocket. Made from soft organic cotton corduroy with a slight amount of elastane, it offers pleasant freedom of movement and a breathable feel. The full-length button placket rounds off the design perfectly. This overshirt is ideal for a variety of occasions and offers optimum comfort on both cool and warm days. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Chest pocket Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 77.5cm, 74.0cm Help for size choosing Model size Our model Claas is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 98% cotton (bio), 2% elasthane Trimming: Corozo Buttons Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/somaan-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>STAAVROOvershirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>84,90 €</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The STAAVRO overshirt made from sturdy woven fabric impresses with its casual, loose fit and practical patch pockets. The shirt collar, button placket and 100% organic cotton make it a versatile everyday companion. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Anas El Hayani is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Heavy weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/staavro-pale-umber</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>STRIPE LONGSLEEVE SHIRTShirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>109,90 €</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Striped Sleeves: long sleeved Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 77.5cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Trimming: Corozo Buttons Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/stripe-longsleeve-shirt-fatigue-green</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>STRIPE SOCKSSocks made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>19,90 €</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Striped Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 78% Baumwolle (bio), 20% Polyamid (recycelt), 2% Elasthan Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Braga, Portugal Producer: FIORIMA  S.A. BNP PARIBAS FACTOR</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/stripe-socks-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>TAAKOSKnit Shirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>54,90 €</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: short sleeved Pockets: no pockets Closure type: Button placket Collar: polo collar Details: no details Fit Cut: Regular Fit Length: Regular Dimensions: 69.0cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/taakos-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>TAALEEN  TWEEDBeanie made of recycled Organic Wool Mix</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Ribbed fabric Optics: Mouliné Fit Cut: Regular Fit Dimensions: Height: 20.5cm, Width: 24.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 65% cotton (bio), 35% wool (recycled) Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 65% OCS certified organic cotton OCS Blended, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/taaleen-tweed-dark-cranberry</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>TAARNOJersey Pants made of LENZING™ ECOVERO™ Viscose Mix</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The TAARNO trousers offer a comfortable fit with a mid-rise waist and slim leg. The elasticated waistband and practical slit pockets ensure comfort, while the soft viscose jersey fabric (LENZING™ ECOVERO™) is comfortable to wear all day long. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Pockets: Side pocket Closure type: zipper Fit Cut: tapered Leg shape: Tapered leg Waistband height: Mid waist Length: Regular Dimensions: inseam length: 75.0cm Help for size choosing Model size Our model Duncan is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 82% viscose (LENZING™ ECOVERO™), 16% polaymide (recycled), 2% elasthane Trimming: Metal hook Material Info: Heavy weight jersey Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/taarno-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>TOLAAPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>54,90 €</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Mouliné Sleeves: long sleeved Pockets: no pockets Closure type: no closure Details: no details Fit Cut: Regular Fit Length: Regular Dimensions: 72.0cm Help for size choosing Model size Our model John Godswill is 187 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/tolaa-seagreen-light-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>TOMAASAS LONGSLEEVE SHIRTShirt made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>79,90 €</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: stand-up collar Details: Embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 77.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Trimming: Corozo Buttons Material Info: Mid weight woven Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/tomaasas-longsleeve-shirt-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>TOMAASASOrganic cotton shirt</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Details: Embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 77.0cm Help for size choosing Model size Our model Keon is 188cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: Corozo Buttons Material Info: Mid weight woven Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/tomaasas-white</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>TOTAA BOLDTote Bag made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: A-Logo Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/totaa-bold-dark-cranberry</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>TOTAA SMILEYTote Bag made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/totaa-smiley-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>TRAAKADenim Jacket Oversized Fit made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>109,90 €</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Sleeves: long sleeved Collar: shirt collar Fit Cut: Oversized Fit Dimensions: 69.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Washing &amp; care instructions Easy care, washable at 40 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 93% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/traaka-ebony-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>TRAAKADenim Jacket made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>84,90 €</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The TRAAKA denim jacket made from sturdy denim offers a loose, casual fit and features a classic shirt collar and side slit pockets. Made from 100% recycled cotton, it combines comfort with a robust finish. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Sleeves: long sleeved Pockets: Side pocket Closure type: Button placket Collar: shirt collar Fit Cut: Oversized Fit Length: Regular Dimensions: 69.0cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material Info: Heavy weight denim Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 94% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/traaka-horizon</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>UN-WASTED KNIT TROYER JACKETCardigan made of Organic Wool Mix</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>199,90 €</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Mouliné Sleeves: long sleeved Fit Cut: Relaxed Fit Length: Regular Dimensions: 67.0cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 50% Baumwolle (bio), 45% Wolle (bio), 4% Viskose (LENZING™ ECOVERO™), 1% Polyamid (recycelt) Material Info: Heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/un-wasted-knit-troyer-jacket-smart-lilac-apple-neon-dynamo-blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>V-NECK SLEEVELESS KNIT VESTPullunder aus Bio-Baumwolle</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>69,90 €</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: V-neck Optics: Plain Sleeves: sleeveless Fit Cut: Regular Fit Length: Regular Dimensions: 68.0cm Help for size choosing Model size Unser Model Kyungseok ist 188 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Fine knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/v-neck-sleeveless-knit-vest-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>VAALERONIMUS LINO SHIRTLinen mix shirt</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: stand-up collar Details: Embroidery Fit Cut: Regular Fit Dimensions: 77.5cm, 74.0cm Help for size choosing Model size Our model Badhiel is 189,5 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 65% viscose (LENZING™ ECOVERO™), 35% linen Trimming: Corozo Buttons Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Paredes, Portugal Producer: J. Caetano &amp; Filhas  LDA.</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/vaaleronimus-lino-seagreen</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>VAALOMESCardigan made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>84,90 €</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The VAALOMES knitted cardigan in fine knit combines a straight, comfortable fit with a classic shirt collar and button placket. Made from a high-quality blend of organic cotton and organic wool, it ensures a soft feel and versatile comfort. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: Button placket Collar: shirt collar Details: no details Fit Cut: Regular Fit Length: Regular Dimensions: 69.5cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 85% cotton (bio), 15% wool (bio) Trimming: hemp buttons Material Info: Fine knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, made with organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/vaalomes-mid-grey-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>VAANJO GMT DYEPullover from organic cotton</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our VAANJO GMT DYE knit sweater is garment-dyed and features a close-fitting silhouette. Made from pure organic cotton, it offers a soft wearing comfort. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Fit Cut: Regular Fit Length: Regular Help for size choosing Model size Our model Duncan K is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Medium heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/vaanjo-gmt-dye-dark-cranberry</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>WAARLO FLEECE TROYERSweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our WAARLO FLEECE sweatshirt, made from brushed organic cotton, features a comfortable, relaxed fit. The troyer collar and subtle logo embroidery add functional details while keeping you pleasantly warm. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: A-Logo Sleeves: long sleeved Closure type: zipper Collar: Troyer with zipper Details: Embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/waarlo-fleece-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>WAARLO LOOP TROYERSweatshirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>99,90 €</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our WAARLO LOOP sweatshirt, crafted from 100% organic cotton, stands out with its comfortable, loose fit. The troyer collar and subtle logo embroidery complete the look with ease. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: no pockets Closure type: zipper Collar: Troyer with zipper Details: Logo embroidery Fit Cut: Regular Fit Length: Regular Dimensions: 71.5cm Help for size choosing Model size Our model Duncan K is 188 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight sweat Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Barcelos, Portugal Producer: Valerius Texteis S.A.</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/waarlo-loop-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>XXL TOTE BAGXXL TOTE BAG | black</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: A-Logo Fit Cut: Regular Fit
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight woven Washing &amp; care instructions Normal wash at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/xxl-tote-bag-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>YAAKOVCardigan Relaxed Fit made of Organic Wool Mix</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>179,90 €</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The YAAKOV cardigan is a stylish all-rounder for chilly days. With its loose cut and shirt collar, it ensures a relaxed feel. The patch pockets and button placket give the jacket a classic touch. Made from a blend of organic cotton, organic wool and recycled polyamide, it offers breathability and comfortable warmth. Perfect for casual outfits and versatile combinations. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 70.0cm Help for size choosing Model size Our model Badhiel is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 77% cotton (bio), 18% wool (bio), 5% polaymide (recycled) Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 Production Production site: Istanbul, Turkey Producer: Bera Tekstil Triko Imalat Ithalat Ihracat San. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yaakov-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>YARNMIX KNIT SWEATERSweater made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Mouliné Sleeves: long sleeved Fit Cut: Regular Fit Length: Regular Dimensions: 68.0cm Help for size choosing Model size Unser Model Aziz  ist 185 cm groß und trägt Größe M
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Heavy knit Washing &amp; care instructions 30° mild fine wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications GOTS, organic, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yarnmix-knit-sweater-fatigue-green-pungent-purple</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>YENAAS BOLD CAPCap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: Logo embroidery Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-bold-dark-morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>YENAAS CHANGEMAKER CAPYENAAS CHANGEMAKER CAP | pink mist</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Fit Cut: Regular Fit
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-changemaker-cap-pink-mist</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>YENAAS CHANGEMAKERSCap made from organic cotton</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-changemakers-dark-wave</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>YENAAS COLORBLOCK CAPYENAAS COLORBLOCK CAP | oatmilk-tabasco red</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Fit Cut: Regular Fit
+[MATERIAL]
+Material &amp; Care Material Hauptmaterial: 100% Baumwolle (bio) Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-colorblock-cap-oatmilk-tabasco-red</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>YENAAS CORD CAPCap made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Haptics: Corduroy Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-cord-light-oak</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>YENAAS DENIM INDIGOCap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-denim-indigo-clean-indigo</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>YENAAS FCCap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>24,90 €</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+This product is part of the exclusive and limited collection collaboration between Armedangels and 1. FC Köln. The styles are made to Armedangels' high standards and are inspired by the iconic jerseys of 1. FC Köln and the trends of the 90s. The collection is excluded from all discount promotions. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Details: Embroidery Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-fc-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>YENAAS KIDS CAPKids Cap made of Organic Cotton</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Now available for kids: our Å-logo cap. The YENAAS KIDS cap fits children aged 6 to 10 years (head circumference 54–55 cm), is made from 100% organic cotton and can be individually adjusted with a size-regulating strap. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: A-Logo Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-kids-light-berry</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>YENAAS LOGAACap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>59,90 €</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Details: Logo embroidery Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-logaa-black-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>YENAAS SINCE 2007Cap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>39,90 €</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Details: Embroidery Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-since-2007-night-sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>YENAAS SMILEY ÅCap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-smiley-a-scarlet-red</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>YENAAS SWEATCap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-sweat-silver-melange</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>YENAAS WIKIPEDIACap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Knowledge changes the world. This limited capsule by ARMEDANGELS and Wikipedia stands for transparency, responsibility, and change – made from up to 100% recycled cotton. Wear your values. Wikipedia and its trademarks are used with permission from the Wikimedia Foundation, the nonprofit that supports Wikipedia, its 265,000 global volunteers and keeps its high-quality knowledge freely accessible. Donate to Wikipedia at donate.wikimedia.org Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Details: Embroidery Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-wikipedia-oatmilk</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>YENAAS WORD ICONIC ÅCap made of organic cotton</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>49,90 €</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The Iconic Å Brand Capsule is a tribute to our changemakers. Carefully crafted for people who make the difference - the ‘Gen Å’. For the collection, we were inspired by classics that never go out of fashion and remain iconic. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Placement Print Details: Embroidery Fit Cut: Regular Fit Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Material Info: Mid weight woven Washing &amp; care instructions Do not wash Do not bleach Do not tumble dry Do not iron Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Vilar do Monte, Barcelos, Portugal Producer: Barcelbordados Gabinete Técnico de Filmes e Bordados  Lda.</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yenaas-word-iconic-a-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>YUKINAA SOLIDScarf made of Mohair Wool Mix</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our YUKINAA SOLID scarf, made from organic wool and mohair, is soft, warming, and has a natural sheen. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Optics: Plain Fit Cut: Regular Fit Dimensions: Width: 42.0cm, Length: 175.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 64% wool (bio), 36% mohair Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 64% RWS certified wool RWS, CU-1085700 36% RMS certified mohair RMS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yukinaa-solid-emerald-green</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>YUKINAA STAMPATOScarf made of Mohair Wool Mix</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+Our striped YUKINAA STAMPATO scarf, made from organic wool and mohair, is soft, warming, and features a natural sheen. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Striped Sleeves: long sleeved Fit Cut: Regular Fit Length: Regular Dimensions: Width: 42.0cm, Length: 175.0cm Help for size choosing
+[MATERIAL]
+Material &amp; Care Material Main material: 64% wool (bio), 36% mohair Material Info: Medium heavy knit Washing &amp; care instructions Hand wash Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 64% RWS certified wool RWS, CU-1085700 36% RMS certified mohair RMS, CU-1085700 Production Production site: Istanbul, Turkey Producer: Özcelik Örme San. Ve Tic. A.S.</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yukinaa-stampato-orchid-walnut-creme</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>YUNAAI CORDUROYOvershirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>109,90 €</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The YUNAAI CORDUROY overshirt offers a comfortable, loose fit with a classic shirt collar. Made from sturdy corduroy crafted from organic and recycled cotton. Patch pockets and a button placket round off the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Our model Nicole is 175 cm tall and is wearing size S
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal buttons Material Info: Heavy weight woven Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 80% OCS certified organic cotton OCS Blended, CU-1085700 20% RCS certified recycled cotton RCS Blended, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yunaai-corduroy-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>YUNAAIOvershirt made of recycled Cotton</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>119,90 €</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The YUNAAI overshirt features a relaxed, loose fit and a classic shirt collar. Patch pockets and a button placket complete the design. The garment-dyed fabric made from 100% recycled cotton provides a pleasantly soft feel. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Details: Garment Dyed Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Our model Etienne is 184 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% recycled cotton Trimming: metal buttons Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications 87% GRS certified recycled Cotton GRS, CU-1085700 PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Ras Jebel, Tunesien Producer: Denim Authority</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yunaai-forest-pine</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>YUNAAI INDIGO CORDOvershirt from organic cotton</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>109,90 €</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The YUNAAI INDIGO CORD overshirt combines a comfortable, loose fit with a classic shirt collar. Made from sturdy corduroy in 100% organic cotton. Patch pockets and a button placket complete the design. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Haptics: Corduroy Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 75.0cm Help for size choosing Model size Our model Khalifa is 185 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 100% Organic Cotton Trimming: metal buttons Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Do not iron hot Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: Komonteks Tekstil Konf. Ve Yıkama San. Dis. Tic. Ltd. Sti.</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yunaai-indigo-cord-indigo-corduroy</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>YUNAAIOvershirt made of Organic Cotton Mix</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>89,90 €</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>[OVERVIEW]
+The YUNAAI overshirt offers a loose, comfortable fit and combines a classic shirt collar with patch pockets and a button placket. Made from a high-quality blend of organic cotton and TENCEL™ Lyocell, it ensures a soft feel and versatile comfort. Show less
+[DETAILS &amp; FIT]
+Details &amp; Fit Details Excerpt: Round Neck Optics: Plain Sleeves: long sleeved Pockets: Patched pocket Closure type: Button placket Collar: shirt collar Fit Cut: Relaxed Fit Length: Regular Dimensions: 77.0cm Help for size choosing Model size Our model Claas Nemnitz is 186 cm tall and is wearing size M
+[MATERIAL]
+Material &amp; Care Material Main material: 43% lyocell (TENCEL™), 40% recycled cotton, 17% cotton (bio) Trimming: metal buttons Material characteristic: Non-Stretch Washing &amp; care instructions Easy care, washable at 30 °C Do not bleach Do not tumble dry Iron at medium temperature Do not dry clean
+[TRANSPARENCY]
+Transparency Certifications PETA approved vegan This product does not contain any animal components and is certified with the logo of the animal rights organization PETA to make vegan shopping easier. Production Production site: Istanbul, Turkey Producer: SANTUK TEKSTIL SAN. VE TIC. A.S.</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>https://www.armedangels.com/en-be/products/yunaai-titan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
